--- a/biology/Zoologie/Dindon_blanc_de_Beltsville/Dindon_blanc_de_Beltsville.xlsx
+++ b/biology/Zoologie/Dindon_blanc_de_Beltsville/Dindon_blanc_de_Beltsville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le dindon blanc de Beltsville est une race de dindon, originaire des États-Unis.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une variété demi-naine avec une poitrine large, intégralement de couleur blanche.
 </t>
@@ -543,9 +557,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été sélectionnée en 1951 aux États-Unis (station de recherches avicoles de Beltsville (en), Maryland) dans le but d'obtenir une race plus légère et plus petite (inférieure à 6 kg pour pouvoir entrer dans les fours de petite taille des Américains[1]) tout en lui conservant une poitrine large, entre autres qualités des races traditionnelles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été sélectionnée en 1951 aux États-Unis (station de recherches avicoles de Beltsville (en), Maryland) dans le but d'obtenir une race plus légère et plus petite (inférieure à 6 kg pour pouvoir entrer dans les fours de petite taille des Américains) tout en lui conservant une poitrine large, entre autres qualités des races traditionnelles.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dindon : 8-10 kg[2]
-Dinde : 4-8 kg[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dindon : 8-10 kg
+Dinde : 4-8 kg</t>
         </is>
       </c>
     </row>
